--- a/biology/Histoire de la zoologie et de la botanique/Emil_Frey-Gessner/Emil_Frey-Gessner.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Emil_Frey-Gessner/Emil_Frey-Gessner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emil Frey-Gessner, né le 19 mars 1826 à Aarau et mort le 24 juillet 1917 à Genève est un entomologiste suisse.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxons dédiés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les noms des espèces suivantes sont dédiés à Emil Frey-Gessner :
 Andrena freygessneri Alfken,1904
@@ -552,7 +566,9 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Barbitistes ruficosta Frey-Gessner, 1872
@@ -599,7 +615,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Frey-Gessner, E. 1862 Beiträge zur Hemiptern-Fauna des Ober-Wallis. Mittheilungen der Schweizerischen entomologischen Gesellschaft, Schaffhausen 1 (1862-1865) (1) 24-31
 Frey-Gessner, E. 1862 Ein neuer Anthocoride. Mittheilungen der Schweizerischen entomologischen Gesellschaft, Schaffhausen 1 (1862-1865) (1) 31-32
@@ -609,11 +627,11 @@
 Frey-Gessner, E. 1863 Orthopterologisches. [Ueber Chorthippus stigmaticus Ramb]. Mittheilungen der Schweizerischen entomologischen Gesellschaft, Schaffhausen  1 (1862-1865) (4) 120
 Frey-Gessner, E. 1865. Orthopterologisches. [Chorthippus= Stenobothrus stigmaticus Ramb. in Wallis.] Mithh. schweiz. ent. Ges., Lausanne, 1, p. 120.
 Frey-Gessner, E. 1865. Beitrag zur rhaetischen Orthopterenfauna. Jahresber. Naturf. Ges. Graubünden 10 [1863-64]: 30–37; Chur.
-Frey-Gessner, E. 1868. [Einige Orthoptern und deren Vorkommen] Mitt. Schweiz. Entomol. Ges. 2 [1866]: 150.
+Frey-Gessner, E. 1868. [Einige Orthoptern und deren Vorkommen] Mitt. Schweiz. Entomol. Ges. 2 : 150.
 Frey-Gessner, E. 1872. Kurze Sammelnotiz aus dem Wallis. Mitt. Schweiz. Entomol. Ges. 3: 17–18.
 Frey-Gessner, E. 1872. Orthopterologisches. Mitt. Schweiz. Entomol. Ges. 4: 7–20, pl. 1.
 Frey-Gessner, E. 1880. Die Orthopteren des Kantons Aargau Mitt. Aargau. Naturf. Ges. 2: 1–17.
-Frey-Gessner, E. 1881. Matériaux pour servir à la faune des insectes de Valais. (Orthoptères). Bull. Soc.Murith. 10 [1880]: 67–86.
+Frey-Gessner, E. 1881. Matériaux pour servir à la faune des insectes de Valais. (Orthoptères). Bull. Soc.Murith. 10 : 67–86.
 Frey-Gessner, E. 1893. Orthoptern, gesammelt in Bulgarien von Hrn. Prof. Dr. A. Forel.  Mitt. Schweiz.Entomol. Ges.8: 397–403.
 Frey-Gessner,  E. 1892. Characters for the determination of the families of Hymenoptera.  Bull. Soc. Murith 13: 37-48. Pls. i, ii.
 Frey-Gessner, E. 1901. Hyménoptères du Valais. Famille Apidae. Bull. Murithienne 30: 78-154.
